--- a/output/3_Regression/analysis_01/h20/coef_rf_bayes_h20.xlsx
+++ b/output/3_Regression/analysis_01/h20/coef_rf_bayes_h20.xlsx
@@ -455,2451 +455,2451 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1252998894499384</v>
+        <v>0.1196449515416082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_1</t>
+          <t>Core CPI - Services - Dining Out_lag_2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1485259084389377</v>
+        <v>0.1500308145526176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_2</t>
+          <t>Core CPI - Services - Dining Out_lag_1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1113422155078682</v>
+        <v>0.1140397755107673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.009741210039309124</v>
+        <v>0.03020411845910736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02033944517887495</v>
+        <v>0.05998091573039929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.008364212241386927</v>
+        <v>0.01065183697684974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0411174388164579</v>
+        <v>0.05620923607167808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01466861016543701</v>
+        <v>0.03880075950975924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02320992892391895</v>
+        <v>0.01053573918255209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01917298440117052</v>
+        <v>0.03864004153224947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.05789505667478499</v>
+        <v>0.02663056687164862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01169122371362489</v>
+        <v>0.008792595055910226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02369053830237601</v>
+        <v>0.03169556389597937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002446152166452203</v>
+        <v>0.003422825266052083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02025966640962095</v>
+        <v>0.01102144959382926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01268080130074611</v>
+        <v>0.04341181764139373</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
+          <t>General Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02432330493786357</v>
+        <v>0.0009344658971378711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02079807228924803</v>
+        <v>0.01181821318602238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0002069129662137349</v>
+        <v>0.01333787230795233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03985908847698899</v>
+        <v>0.004303787318022599</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
+          <t>Terms of Trade - Imports_lag_2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02293551125802775</v>
+        <v>0.008221475443788689</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_3</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.00127135689100114</v>
+        <v>0.02913168603525581</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Terms of Trade - Imports_lag_1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.006318151047673317</v>
+        <v>0.0009625855086303132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_1</t>
+          <t>Terms of Trade - Imports_lag_3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001927302004094211</v>
+        <v>0.0007524721729118573</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.00074222469145244</v>
+        <v>0.00532663077069493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.743842994614314e-05</v>
+        <v>0.01116206353564677</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_3</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0009639748762224864</v>
+        <v>0.004149931866673272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
+          <t>Terms of Trade - Exports_lag_1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.004529663575805597</v>
+        <v>0.01408437864181653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.003466894060163832</v>
+        <v>0.0001733307597663797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_1</t>
+          <t>Business Expectations - Demand (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0004538167685828201</v>
+        <v>0.0009500823108411708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_1</t>
+          <t>Private Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.001483648512602604</v>
+        <v>0.0001226436912709046</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_1</t>
+          <t>Terms of Trade - Exports_lag_2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0004563605246565197</v>
+        <v>0.0003749053221965652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
+          <t>Private Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.001036435517024317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0002234179007737384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004475578070643664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_1</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0008235582216060898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_2</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00106630907921981</v>
+        <v>0.002722704518003582</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_1</t>
+          <t>Electricity Production - Lima (GWh)_lag_3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0008398511257856682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
+          <t>Chicken Placements (thousands)_lag_2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0003606505314407326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.663017171166836e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_1</t>
+          <t>Monetary Policy Rate_lag_3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.000820484628321138</v>
+        <v>0.007139213521054406</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.106959806783815e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01689392842368014</v>
+        <v>0.0001980353187109588</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_2</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.002072657367144292</v>
+        <v>0.02060459782047416</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_1</t>
+          <t>Reserve Requirement Rate_lag_1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0004913299381983083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
+          <t>Business Expectations - Sector (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0005004416886005421</v>
+        <v>0.0009035705757143049</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0009591772091036908</v>
+        <v>0.003699039520336825</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0007235806107538173</v>
+        <v>0.0003664691689468854</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001242411957233904</v>
+        <v>0.0001680301995235905</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_3</t>
+          <t>Business Expectations - Inventory (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.005625916296514842</v>
+        <v>0.003960319157937985</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0005216613821160474</v>
+        <v>0.0006031844265192836</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0004136759888233099</v>
+        <v>0.003823634026478747</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.001273408130167263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Corn Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.001542185487872468</v>
+        <v>0.0006113777341419611</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.001067274319616456</v>
+        <v>0.00598101418833688</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0004937645176652794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0003826190186716342</v>
+        <v>0.0002314241783609302</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.002569211247876036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.003320773529606462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.005942887455028466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_3</t>
+          <t>Terms of Trade - Exports_lag_3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0003264599522706288</v>
+        <v>0.000692104359295552</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0004011913701660379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0001942550011086254</v>
+        <v>0.0007400974831526253</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Monthly Income (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.001212858465500515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0006386096156096984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_1</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001469522402621943</v>
+        <v>0.0002924949264979652</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_1</t>
+          <t>Fishmeal Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0006121916298404698</v>
+        <v>0.0007069931811432147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_2</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0006570843736338781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.00251892567552812</v>
+        <v>0.002072847719175047</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0009812644243431209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
+          <t>GDP - Agriculture_lag_2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.001247897910638057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0008543210147168383</v>
+        <v>0.0005694395074793964</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0007692793955210042</v>
+        <v>0.0004192277268977307</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.003016774401692921</v>
+        <v>0.000238896145525867</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001586585964459017</v>
+        <v>0.001004447222099999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
+          <t>GDP - Construction_lag_2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001587679375138921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_2</t>
+          <t>Wheat Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001582708240814926</v>
+        <v>0.0007453146685065999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0004277151207951074</v>
+        <v>0.002115360816361499</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
+          <t>GDP - Other Services (index 2007=100)_lag_3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.002456113262097347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_3</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.001243935867423137</v>
+        <v>0.003373394946209998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.007268401574785202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_1</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0003022954287937385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_1</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0007159323678530879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_2</t>
+          <t>Fishmeal Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0003875260598418698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_3</t>
+          <t>Monthly Income (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0005355797031323886</v>
+        <v>0.002361712742310035</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.00396534119927125</v>
+        <v>0.003034338343414641</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0006905547474134237</v>
+        <v>0.002501404539811468</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.0005658004098218664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0001514137817860242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_1</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.001359523417476399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Copper Price (¢US$ per lb)_lag_1</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.001212130916254934</v>
+        <v>0.0005225347966820809</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.982783495157454e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.002756717951120811</v>
+        <v>0.004063576356048713</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0002446612397360573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_1</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.001949301131982897</v>
+        <v>0.001321978760247685</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0002418783078262094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.000652811985229888</v>
+        <v>0.001135847005482509</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_1</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0006295412977681907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0009726588280320876</v>
+        <v>0.001341469335932415</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_1</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0005103766215811915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_2</t>
+          <t>Business Expectations - Demand (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.001043342431664883</v>
+        <v>0.00291713806524438</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
+          <t>GDP - Agriculture_lag_1</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0004112121023610161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0009869341689391991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.001320262893621266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_3</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.001203148627358777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Public Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.001440119620316416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.002342340900246079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.006440729038845554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0001604706144973437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_3</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.003948482352115059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
+          <t>Underemployed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0004017709972562003</v>
+        <v>0.00125650779607147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_2</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.002180781515668214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_2</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.003914576023404515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_2</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.000929083148920588</v>
+        <v>0.0001924354568207509</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0004843341783670002</v>
+        <v>0.002292776793761008</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0005163285077169691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_3</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0005511700322414773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_3</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.00117500253423859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Public Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0007125643556592036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_2</t>
+          <t>GDP - Construction_lag_1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.001645807074355448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.002799493573923506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4.813181984210338e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_1</t>
+          <t>GDP - Mining_lag_1</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.0001484107470925056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0002526896567693809</v>
+        <v>0.005863418034688467</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0005922625943610311</v>
+        <v>0.0001717615715514653</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0009559449292995255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_3</t>
+          <t>Business Expectations - Current Situation_lag_1</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.003210167502448955</v>
+        <v>0.0003516612806142846</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_2</t>
+          <t>Business Expectations - Orders (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.001492953270810004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.0001179332636223286</v>
+        <v>0.005297204378800499</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Sector (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.0007660736034008724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_3</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.001066102073431976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
+          <t>GDP - Fishing_lag_2</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0003643797521994176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0006345693914366807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0005045868829990505</v>
+        <v>0.0009642206490750176</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0004463664666672336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_3</t>
+          <t>Monetary Policy Rate_lag_1</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.000186758721352377</v>
+        <v>0.008447500344334342</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_3</t>
+          <t>GDP - Construction_lag_3</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.0001357965790893543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_3</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.008779021547378692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.0006279226399453814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_2</t>
+          <t>GDP - Fishing_lag_3</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.0003995538874233471</v>
+        <v>0.001082043026522035</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.001592088968154523</v>
+        <v>0.001726293149814389</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.0002146766502211792</v>
+        <v>0.002879942889172205</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Current Situation_lag_3</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.000998302227303577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_2</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.0002968574332056816</v>
+        <v>0.001515179781980452</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.0001845578032861085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.001729548168681828</v>
+        <v>0.001682510360514128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_2</t>
+          <t>Coffee Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.000260323323900182</v>
+        <v>0.001005228114161184</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_2</t>
+          <t>Business Expectations - Sector (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.000681250383610817</v>
+        <v>8.482489356123976e-05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_1</t>
+          <t>Chicken Placements (thousands)_lag_1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001497399941572518</v>
+        <v>0.000750330082422088</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_3</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.001375303784397776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
+          <t>Employment Ratio (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.001147324016548955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
+          <t>Business Expectations - Economy (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.0003232895637518059</v>
+        <v>0.001404195990321073</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
+          <t>Copper Price (¢US$ per lb)_lag_3</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2.212459515371164e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.001160178329632412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_3</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.008130133795469318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4.023579599748068e-05</v>
+        <v>0.0002159534826467062</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
+          <t>Chicken Placements (thousands)_lag_3</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0005365280582348517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Reserve Requirement Rate_lag_3</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.005876288238516241</v>
+        <v>0.0005901122359833613</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.0004559147709806204</v>
+        <v>0.00406843119704595</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_1</t>
+          <t>GDP - Other Services (index 2007=100)_lag_2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.0009089968367450232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
+          <t>GDP Growth - Commerce (annual %)_lag_1</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0007765974179167821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_2</t>
+          <t>Business Expectations - Orders (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0007515891484518833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0009235065090638113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_3</t>
+          <t>Monetary Policy Rate_lag_2</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.002066617473913737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
+          <t>GDP - Fishing_lag_1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.000783243375480291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
+          <t>Public Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0003060334903894196</v>
+        <v>0.0009838127204167754</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.001930025511981372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_2</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.005498206341681569</v>
+        <v>0.0008160656858591015</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_3</t>
+          <t>GDP - Agriculture_lag_3</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.0002024421891136291</v>
+        <v>0.001070419534605626</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_1</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.0005656106010236098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_2</t>
+          <t>Employment Ratio (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.001022220936176509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Coffee Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.00237899004384937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.00224823126737331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_3</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.001273936748362559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.004127602131806178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.001243869874447941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.0008750942005653038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.000586713537647203</v>
+        <v>0.008503946068359166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Business Expectations - Demand (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5.888717031130183e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.0004074488192395411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_1</t>
+          <t>GDP - Mining_lag_2</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.0001071940323409569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_2</t>
+          <t>Private Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.0004162299445521229</v>
+        <v>0.0007652628834742902</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_3</t>
+          <t>GDP - Mining_lag_3</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0001019734986825394</v>
+        <v>0.0005405499477558781</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_2</t>
+          <t>Gold (US$ per oz troy)_lag_2</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8.532218256871967e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_1</t>
+          <t>Business Expectations - Orders (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.0001919449221444697</v>
+        <v>0.0003867749545835839</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.0003480069020868787</v>
+        <v>0.001898469956819822</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.00105340595964458</v>
+        <v>0.000209450251092273</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
+          <t>Coffee Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5.98716101683963e-06</v>
+        <v>0.0002799513240812629</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_1</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.00206341514253237</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
